--- a/Sasha_Britikov/Tables/Pelets_2024.xlsx
+++ b/Sasha_Britikov/Tables/Pelets_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22770" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22770" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Пеллеты улиток" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>N_Saxatilis</t>
-  </si>
-  <si>
-    <t>N_Obtusata</t>
-  </si>
-  <si>
     <t>10.08.2024</t>
   </si>
   <si>
@@ -115,6 +109,15 @@
   </si>
   <si>
     <t>Substrate_2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>L.saxatilis</t>
+  </si>
+  <si>
+    <t>L.obtusata</t>
   </si>
 </sst>
 </file>
@@ -396,1380 +399,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'ОБилие литторин на уровнях'!$D$2:$D$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>145.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>145.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>145.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>177.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>177.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>177.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>189.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>189.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>189.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>183.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>183.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>183.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>181.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>181.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>181.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>184.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>184.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>184.9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>204.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>204.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>204.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>250.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>250.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>250.3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>153.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>153.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>153.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>153.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>153.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>180.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>180.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>180.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>180.4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>180.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>181.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>181.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>181.1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>181.1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>181.1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>175.5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>175.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>175.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>175.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>175.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>206.8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>206.8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>206.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>206.8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>206.8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>314.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>314.3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>314.3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>314.3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>314.3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>424.3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>424.3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>424.3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>424.3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>424.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'ОБилие литторин на уровнях'!$H$2:$H$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>4.0000000000000036E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6666666666666652E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0588235294117618E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.52380952380952384</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.46153846153846156</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.41666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.69230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.82352941176470584</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.4642857142857143</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.65517241379310343</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54545454545454541</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.16666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.53846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.40909090909090906</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.30769230769230771</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.44444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.53125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.90476190476190477</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.85714285714285721</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.84782608695652173</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.81666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.68421052631578949</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.7931034482758621</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.64285714285714279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE72-4C0B-BB26-F009F44EE108}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="194251892"/>
-        <c:axId val="721063248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="194251892"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="721063248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="721063248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="194251892"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>645160</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>474345</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2233,7 +863,7 @@
   <dimension ref="A1:H622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2253,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -18421,428 +17051,495 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-27.7</v>
       </c>
-      <c r="E2">
-        <f>D2+100</f>
+      <c r="F2">
+        <f>E2+100</f>
         <v>72.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>53.3</v>
       </c>
-      <c r="E3">
-        <f>D3+100</f>
+      <c r="F3">
+        <f>E3+100</f>
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <f>C3+10</f>
+      <c r="D4">
+        <f>D3+10</f>
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>80.400000000000006</v>
       </c>
-      <c r="E4">
-        <f>D4+100</f>
+      <c r="F4">
+        <f>E4+100</f>
         <v>180.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <f>C4+10</f>
+      <c r="D5">
+        <f>D4+10</f>
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>81.099999999999994</v>
       </c>
-      <c r="E5">
-        <f>D5+100</f>
+      <c r="F5">
+        <f>E5+100</f>
         <v>181.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <f>C5+10</f>
+      <c r="D6">
+        <f>D5+10</f>
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>75.5</v>
       </c>
-      <c r="E6">
-        <f>D6+100</f>
+      <c r="F6">
+        <f>E6+100</f>
         <v>175.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <f>C6+10</f>
+      <c r="D7">
+        <f>D6+10</f>
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>14.5</v>
       </c>
-      <c r="E7">
-        <f>D7+175.5</f>
+      <c r="F7">
+        <f>E7+175.5</f>
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
       <c r="C8">
-        <f>C7+10</f>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>D7+10</f>
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>31.3</v>
       </c>
-      <c r="E8">
-        <f>D8+175.5</f>
+      <c r="F8">
+        <f>E8+175.5</f>
         <v>206.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
       <c r="C9">
-        <f>C8+5</f>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f>D8+5</f>
         <v>65</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>107.5</v>
       </c>
-      <c r="E9">
-        <f>D9+206.8</f>
+      <c r="F9">
+        <f>E9+206.8</f>
         <v>314.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
       <c r="C10">
-        <f>C9+5</f>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f>D9+5</f>
         <v>70</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>110</v>
       </c>
-      <c r="E10">
-        <f>D10+314.3</f>
+      <c r="F10">
+        <f>E10+314.3</f>
         <v>424.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>45.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F20" si="0">E11+100</f>
+        <v>145.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>45.9</v>
+        <f t="shared" ref="D12:D22" si="1">D11+5</f>
+        <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E21" si="0">D12+100</f>
-        <v>145.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C23" si="1">C12+5</f>
-        <v>5</v>
-      </c>
-      <c r="D13">
         <v>43</v>
       </c>
-      <c r="E13">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="E13">
         <v>52</v>
       </c>
-      <c r="E14">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="E14">
         <v>67.7</v>
       </c>
-      <c r="E15">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>167.7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="E15">
         <v>77.8</v>
       </c>
-      <c r="E16">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>177.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D17">
+      <c r="E16">
         <v>89.4</v>
       </c>
-      <c r="E17">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>189.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="E17">
         <v>83.4</v>
       </c>
-      <c r="E18">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>183.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D19">
+      <c r="E18">
         <v>81.400000000000006</v>
       </c>
-      <c r="E19">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>181.4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D20">
+      <c r="E19">
         <v>84.9</v>
       </c>
-      <c r="E20">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>184.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D21">
+      <c r="E20">
         <v>104.6</v>
       </c>
-      <c r="E21">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>204.6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22">
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="E21">
+        <v>45.7</v>
+      </c>
+      <c r="F21">
+        <f>E21+204.6</f>
+        <v>250.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
       <c r="D22">
-        <v>45.7</v>
-      </c>
-      <c r="E22">
-        <f>D22+204.6</f>
-        <v>250.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D23">
+      <c r="E22">
         <v>57.4</v>
       </c>
-      <c r="E23">
-        <f>D23+204.6</f>
+      <c r="F22">
+        <f>E22+204.6</f>
         <v>262</v>
       </c>
     </row>
@@ -18855,13 +17552,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="12.5703125"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -18869,24 +17569,30 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -18895,25 +17601,24 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>145.9</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>24</v>
-      </c>
-      <c r="H2">
-        <f>1-G2/(F2+G2)</f>
-        <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -18922,25 +17627,24 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>145.9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>42</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H34" si="0">1-G3/(F3+G3)</f>
-        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -18949,1051 +17653,1012 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>145.9</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>79</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>7.0588235294117618E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>143</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>6</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>143</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>143</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>29</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>9.375E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>152</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>31</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>152</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>152</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>167.7</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>167.7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>167.7</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>177.8</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>12</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>177.8</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>177.8</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>189.4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>189.4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>189.4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
         <v>183.4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
         <v>183.4</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>11</v>
-      </c>
       <c r="G21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0.52380952380952384</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
         <v>183.4</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>16</v>
       </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>181.4</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
         <v>181.4</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
         <v>181.4</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>14</v>
       </c>
-      <c r="G25">
-        <v>11</v>
-      </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
         <v>184.9</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
         <v>184.9</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>5</v>
       </c>
-      <c r="G27">
-        <v>7</v>
-      </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666663</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
         <v>184.9</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
       <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
         <v>4</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
         <v>204.6</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>14</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
         <v>204.6</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>13</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>15</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
         <v>204.6</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>19</v>
       </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0.65517241379310343</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
         <v>250.3</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
         <v>250.3</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
         <v>250.3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>6</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>12</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>262</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="e">
-        <f t="shared" ref="H35:H66" si="1">1-G35/(F35+G35)</f>
-        <v>#DIV/0!</v>
+      <c r="H35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>262</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>12</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>262</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>3</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>72.3</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
       </c>
       <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
         <v>1</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>72.3</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>2</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>72.3</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>3</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>72.3</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>4</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>72.3</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>5</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -20002,25 +18667,24 @@
         <v>2</v>
       </c>
       <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>153.30000000000001</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>0</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
@@ -20029,25 +18693,24 @@
         <v>2</v>
       </c>
       <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
         <v>153.30000000000001</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -20056,25 +18719,24 @@
         <v>2</v>
       </c>
       <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
         <v>153.30000000000001</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>3</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -20083,25 +18745,24 @@
         <v>2</v>
       </c>
       <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
         <v>153.30000000000001</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>4</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -20110,970 +18771,933 @@
         <v>2</v>
       </c>
       <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
         <v>153.30000000000001</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>5</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <v>8</v>
-      </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
         <v>3</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>180.4</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>4</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
         <v>3</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>180.4</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>4</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>180.4</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>3</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>8</v>
-      </c>
       <c r="H50">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
         <v>3</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>180.4</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>4</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>5</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>180.4</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>5</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>5</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>181.1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>5</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>181.1</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>2</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>1</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>4</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>181.1</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>3</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>4</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
         <v>4</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>181.1</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>4</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>4</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>181.1</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>5</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>175.5</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>7</v>
-      </c>
       <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
         <v>6</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>175.5</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>2</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>2</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>175.5</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>3</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>2</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>4</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
       </c>
       <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>175.5</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>4</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
       </c>
       <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>175.5</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>5</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
       </c>
       <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>190</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1</v>
       </c>
-      <c r="F63">
-        <v>9</v>
-      </c>
       <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63">
         <v>13</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="1"/>
-        <v>0.40909090909090906</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
         <v>6</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>190</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>2</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="G64">
-        <v>9</v>
-      </c>
       <c r="H64">
-        <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>190</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>3</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>4</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>5</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
       <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
         <v>6</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>190</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>4</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
       <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
         <v>6</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>190</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>5</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>3</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H82" si="2">1-G67/(F67+G67)</f>
-        <v>0.75</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
         <v>206.8</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>4</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>2</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
         <v>206.8</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>2</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>17</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>15</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="2"/>
-        <v>0.53125</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
         <v>206.8</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>21</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
         <v>206.8</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>4</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>14</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
         <v>206.8</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>5</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>3</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>1</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
         <v>314.3</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>19</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>2</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="2"/>
-        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
         <v>314.3</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>2</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>36</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>6</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="2"/>
-        <v>0.85714285714285721</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
         <v>314.3</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>3</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>39</v>
       </c>
-      <c r="G75">
-        <v>7</v>
-      </c>
       <c r="H75">
-        <f t="shared" si="2"/>
-        <v>0.84782608695652173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
         <v>314.3</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>4</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>49</v>
       </c>
-      <c r="G76">
-        <v>11</v>
-      </c>
       <c r="H76">
-        <f t="shared" si="2"/>
-        <v>0.81666666666666665</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
         <v>314.3</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>5</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>40</v>
       </c>
-      <c r="G77">
-        <v>10</v>
-      </c>
       <c r="H77">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
         <v>424.3</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>1</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>13</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>6</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="2"/>
-        <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79">
         <v>424.3</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>2</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>15</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>2</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="2"/>
-        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80">
         <v>424.3</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>3</v>
       </c>
-      <c r="F80">
-        <v>8</v>
-      </c>
       <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="H80">
         <v>4</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81">
         <v>424.3</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>23</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>6</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="2"/>
-        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82">
         <v>424.3</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>5</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>18</v>
       </c>
-      <c r="G82">
-        <v>10</v>
-      </c>
       <c r="H82">
-        <f t="shared" si="2"/>
-        <v>0.64285714285714279</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21089,10 +19713,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Sasha_Britikov/Tables/Pelets_2024.xlsx
+++ b/Sasha_Britikov/Tables/Pelets_2024.xlsx
@@ -17553,7 +17553,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
